--- a/tables/wk2_optimization.xlsx
+++ b/tables/wk2_optimization.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DR\doktorat_v01\Latex\phd_kali\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dane\Doktorat\phd_kalitowski\phd_kali\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B5127-068E-4995-9640-62FBF1CCAEDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="model_upr" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Element</t>
   </si>
@@ -71,13 +71,50 @@
   <si>
     <t>Zakres dopuszczalny
 [mm]</t>
+  </si>
+  <si>
+    <t>Model 2D</t>
+  </si>
+  <si>
+    <t>Porównanie</t>
+  </si>
+  <si>
+    <t>Konstrukcja
+rzeczywista</t>
+  </si>
+  <si>
+    <t>P1/4</t>
+  </si>
+  <si>
+    <t>P2/4</t>
+  </si>
+  <si>
+    <t>P3/4</t>
+  </si>
+  <si>
+    <t>Częstotliwości</t>
+  </si>
+  <si>
+    <t>f_1</t>
+  </si>
+  <si>
+    <t>f_2</t>
+  </si>
+  <si>
+    <t>f_3</t>
+  </si>
+  <si>
+    <t>Próbne obciążenie U1</t>
+  </si>
+  <si>
+    <t>Próbne obciążenie U2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +124,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,10 +153,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -123,9 +168,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,20 +457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -429,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -448,7 +503,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -467,7 +522,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -478,7 +533,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -488,7 +543,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -501,7 +556,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -512,7 +567,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -522,7 +577,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -532,7 +587,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -543,7 +598,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -553,7 +608,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -577,7 +632,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -592,4 +647,185 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5.54</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-16.239999999999998</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-7.86</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6.51</v>
+      </c>
+      <c r="I5" s="5">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-11.68</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <f>(2.48+2.55)/2</f>
+        <v>2.5149999999999997</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="E6" s="5">
+        <f>(5.81+5.87)/2</f>
+        <v>5.84</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-16.260000000000002</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-8.26</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.83</v>
+      </c>
+      <c r="I6" s="5">
+        <v>-2.66</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-11.49</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-8.06</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <f>C5/C6</f>
+        <v>0.9900596421471175</v>
+      </c>
+      <c r="D7" s="6">
+        <f>D5/D6</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <f>E5/E6</f>
+        <v>0.94863013698630139</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7" si="0">F5/F6</f>
+        <v>0.99876998769987679</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7" si="1">G5/G6</f>
+        <v>0.95157384987893467</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7" si="2">H5/H6</f>
+        <v>1.1166380789022299</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" ref="I7" si="3">I5/I6</f>
+        <v>0.93609022556390975</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" ref="J7" si="4">J5/J6</f>
+        <v>1.0165361183637946</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ref="K7" si="5">K5/K6</f>
+        <v>1.0297766749379653</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>